--- a/outputs-HGR-r202/f__Atopobiaceae.xlsx
+++ b/outputs-HGR-r202/f__Atopobiaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,35 +675,35 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23753.fa</t>
+          <t>even_MAG-GUT21962.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0003718135145107194</v>
+        <v>0.002418271697811553</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0006192169928641697</v>
+        <v>0.001323977038292473</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00082451506324097</v>
+        <v>0.01150053300174276</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9961358329008879</v>
+        <v>0.9826540725140528</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001765623818855937</v>
+        <v>0.001030261324419505</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00028279411902287</v>
+        <v>0.001072688448907848</v>
       </c>
       <c r="H6" t="n">
-        <v>2.001330107217434e-07</v>
+        <v>1.862378167514358e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>3.457606808399077e-09</v>
+        <v>9.736956266054982e-09</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9961358329008879</v>
+        <v>0.9826540725140528</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -719,35 +719,35 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31502.fa</t>
+          <t>even_MAG-GUT23753.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003916115795485234</v>
+        <v>0.0003718135145107194</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005725487189663952</v>
+        <v>0.0006192169928641697</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0003581238667870018</v>
+        <v>0.00082451506324097</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9971956960423457</v>
+        <v>0.9961358329008879</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001463827434719924</v>
+        <v>0.001765623818855937</v>
       </c>
       <c r="G7" t="n">
-        <v>1.817248363554626e-05</v>
+        <v>0.00028279411902287</v>
       </c>
       <c r="H7" t="n">
-        <v>1.681163464902832e-08</v>
+        <v>2.001330107217434e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>3.06236233033146e-09</v>
+        <v>3.457606808399077e-09</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9971956960423457</v>
+        <v>0.9961358329008879</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -763,35 +763,35 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32356.fa</t>
+          <t>even_MAG-GUT31502.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001346066810206206</v>
+        <v>0.0003916115795485234</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001290893372502026</v>
+        <v>0.0005725487189663952</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002077220334223469</v>
+        <v>0.0003581238667870018</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9934043262413608</v>
+        <v>0.9971956960423457</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0001614494494725587</v>
+        <v>0.001463827434719924</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00171937044861395</v>
+        <v>1.817248363554626e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>6.709407451191268e-07</v>
+        <v>1.681163464902832e-08</v>
       </c>
       <c r="I8" t="n">
-        <v>2.402875892567357e-09</v>
+        <v>3.06236233033146e-09</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9934043262413608</v>
+        <v>0.9971956960423457</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -807,35 +807,35 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32889.fa</t>
+          <t>even_MAG-GUT32356.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002646048089685236</v>
+        <v>0.001346066810206206</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002694720836371367</v>
+        <v>0.001290893372502026</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001237475324233988</v>
+        <v>0.002077220334223469</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9825466512246503</v>
+        <v>0.9934043262413608</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002662965000961845</v>
+        <v>0.0001614494494725587</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008208855737760984</v>
+        <v>0.00171937044861395</v>
       </c>
       <c r="H9" t="n">
-        <v>3.275465673431904e-06</v>
+        <v>6.709407451191268e-07</v>
       </c>
       <c r="I9" t="n">
-        <v>8.320662716585589e-09</v>
+        <v>2.402875892567357e-09</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9825466512246503</v>
+        <v>0.9934043262413608</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -851,35 +851,35 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32902.fa</t>
+          <t>even_MAG-GUT32889.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003527575015038558</v>
+        <v>0.002646048089685236</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004567054927940977</v>
+        <v>0.002694720836371367</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0001774145259207493</v>
+        <v>0.001237475324233988</v>
       </c>
       <c r="E10" t="n">
-        <v>0.995996802389203</v>
+        <v>0.9825466512246503</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003003371743369593</v>
+        <v>0.002662965000961845</v>
       </c>
       <c r="G10" t="n">
-        <v>1.292205245910793e-05</v>
+        <v>0.008208855737760984</v>
       </c>
       <c r="H10" t="n">
-        <v>2.358930724647501e-08</v>
+        <v>3.275465673431904e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>2.705442502790177e-09</v>
+        <v>8.320662716585589e-09</v>
       </c>
       <c r="J10" t="n">
-        <v>0.995996802389203</v>
+        <v>0.9825466512246503</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -895,79 +895,79 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89959.fa</t>
+          <t>even_MAG-GUT32902.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.704466536902019e-06</v>
+        <v>0.0003527575015038558</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002346317794025641</v>
+        <v>0.0004567054927940977</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9982303503374764</v>
+        <v>0.0001774145259207493</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001110239663645959</v>
+        <v>0.995996802389203</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0004163057795154234</v>
+        <v>0.003003371743369593</v>
       </c>
       <c r="G11" t="n">
-        <v>1.840129976147714e-07</v>
+        <v>1.292205245910793e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.167800042233973e-09</v>
+        <v>2.358930724647501e-08</v>
       </c>
       <c r="I11" t="n">
-        <v>5.817926251094736e-07</v>
+        <v>2.705442502790177e-09</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9982303503374764</v>
+        <v>0.995996802389203</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>g__Olsenella</t>
+          <t>g__Olsenella_B</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>g__Olsenella</t>
+          <t>g__Olsenella_B</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90583.fa</t>
+          <t>even_MAG-GUT89959.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.791707243793043e-05</v>
+        <v>7.704466536902019e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000262429162783033</v>
+        <v>0.0002346317794025641</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9992932928110353</v>
+        <v>0.9982303503374764</v>
       </c>
       <c r="E12" t="n">
-        <v>1.771991964174011e-05</v>
+        <v>0.001110239663645959</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0004070868097954918</v>
+        <v>0.0004163057795154234</v>
       </c>
       <c r="G12" t="n">
-        <v>1.459610535530221e-06</v>
+        <v>1.840129976147714e-07</v>
       </c>
       <c r="H12" t="n">
-        <v>5.969316208625873e-09</v>
+        <v>2.167800042233973e-09</v>
       </c>
       <c r="I12" t="n">
-        <v>8.864445482240834e-08</v>
+        <v>5.817926251094736e-07</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9992932928110353</v>
+        <v>0.9982303503374764</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -983,42 +983,86 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT90583.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.791707243793043e-05</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.000262429162783033</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9992932928110353</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.771991964174011e-05</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0004070868097954918</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.459610535530221e-06</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.969316208625873e-09</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8.864445482240834e-08</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9992932928110353</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>g__Olsenella</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>g__Olsenella</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9760.fa</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>0.001225948075834317</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>0.0010409617694563</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>0.0009009027777984194</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" t="n">
         <v>0.9941352747444401</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F14" t="n">
         <v>0.0005738443368821962</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>0.002122901198087008</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>1.597250325289579e-07</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>7.372469205153337e-09</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>0.9941352747444401</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>g__Olsenella_B</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>g__Olsenella_B</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>g__Olsenella_B</t>
         </is>

--- a/outputs-HGR-r202/f__Atopobiaceae.xlsx
+++ b/outputs-HGR-r202/f__Atopobiaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,11 @@
           <t>g__Olsenella_B</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>g__Olsenella_B</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -568,6 +578,11 @@
           <t>g__Olsenella_B</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>g__Olsenella_B</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -607,6 +622,11 @@
           <t>g__Olsenella_B</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>g__Olsenella_B</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -646,6 +666,11 @@
           <t>g__Olsenella_B</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>g__Olsenella_B</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -685,6 +710,11 @@
           <t>g__Olsenella_B</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>g__Olsenella_B</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -724,6 +754,11 @@
           <t>g__Olsenella_B</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>g__Olsenella_B</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -763,6 +798,11 @@
           <t>g__Olsenella_B</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>g__Olsenella_B</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -802,6 +842,11 @@
           <t>g__Olsenella_B</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>g__Olsenella_B</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -841,6 +886,11 @@
           <t>g__Olsenella_B</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>g__Olsenella_B</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -880,6 +930,11 @@
           <t>g__Olsenella_B</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>g__Olsenella_B</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -919,6 +974,11 @@
           <t>g__Olsenella</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>g__Olsenella</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -958,6 +1018,11 @@
           <t>g__Olsenella</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>g__Olsenella</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -993,6 +1058,11 @@
         <v>0.9941352747444401</v>
       </c>
       <c r="K14" t="inlineStr">
+        <is>
+          <t>g__Olsenella_B</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>g__Olsenella_B</t>
         </is>
